--- a/biology/Zoologie/Hirthia/Hirthia.xlsx
+++ b/biology/Zoologie/Hirthia/Hirthia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirthia est un genre d'escargots d'eau douce d'Afrique centrale à opercule, mollusques gastéropodes aquatiques de la famille des Paludomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre comprend les deux espèces suivantes[1],[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre comprend les deux espèces suivantes :
 Hirthia globosa Ancey, 1898
 Hirthia littorina Ancey, 1898</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Hirthia, choisi en 1898 par le zoologiste français César Marie Félix Ancey, en l'honneur de Monseigneur Hirth, de la Société des missionnaires d'Alger, pour l'espèce type Hirthia littorina[4].
-Hirthia a pour synonyme[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Hirthia, choisi en 1898 par le zoologiste français César Marie Félix Ancey, en l'honneur de Monseigneur Hirth, de la Société des missionnaires d'Alger, pour l'espèce type Hirthia littorina.
+Hirthia a pour synonyme :
 Hirtia Dautzenberg, 1900</t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
